--- a/KOP brexit.xlsx
+++ b/KOP brexit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roy\Documents\A IDC Roy BDA\Third Year - BDA\Semester 2\סטאז'\code new\brexit-package-new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31A56F5-6817-4174-BCAB-4B6038643B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B845E4B-0E32-4128-91A7-1180201BD6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="251">
   <si>
     <t>Index</t>
   </si>
@@ -761,6 +761,72 @@
   </si>
   <si>
     <t> Stephen Parkinson</t>
+  </si>
+  <si>
+    <t>George Osborne</t>
+  </si>
+  <si>
+    <t>@George_Osborne</t>
+  </si>
+  <si>
+    <t>Michael Heseltine</t>
+  </si>
+  <si>
+    <t>@michaelhsltine_</t>
+  </si>
+  <si>
+    <t>William Hague</t>
+  </si>
+  <si>
+    <t>@WilliamJHague</t>
+  </si>
+  <si>
+    <t>Chuka Umunna</t>
+  </si>
+  <si>
+    <t>@ChukaUmunna</t>
+  </si>
+  <si>
+    <t>Jeremy Corbyn</t>
+  </si>
+  <si>
+    <t>@jeremycorbyn</t>
+  </si>
+  <si>
+    <t>James Dyson</t>
+  </si>
+  <si>
+    <t>@Dyson</t>
+  </si>
+  <si>
+    <t>Steve O'Connell</t>
+  </si>
+  <si>
+    <t>@SteveO_Connell</t>
+  </si>
+  <si>
+    <t>Jim Ratcliffe</t>
+  </si>
+  <si>
+    <t>@jim_ratcliffe</t>
+  </si>
+  <si>
+    <t>Dame Helena Morrissey</t>
+  </si>
+  <si>
+    <t>@MorrisseyHelena</t>
+  </si>
+  <si>
+    <t>Anthony Bamford</t>
+  </si>
+  <si>
+    <t>Tim Martin</t>
+  </si>
+  <si>
+    <t>@GroovyTimbo</t>
+  </si>
+  <si>
+    <t>Simon Wolfson</t>
   </si>
 </sst>
 </file>
@@ -791,7 +857,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -802,6 +868,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE7E6E6"/>
         <bgColor rgb="FFE7E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -824,7 +896,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -832,6 +904,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1118,9 +1192,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2516,57 +2590,197 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="1"/>
+      <c r="A63" s="7">
+        <v>61</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="1"/>
-    </row>
-    <row r="65" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="1"/>
-    </row>
-    <row r="66" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="1"/>
-    </row>
-    <row r="67" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="1"/>
-    </row>
-    <row r="68" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="1"/>
-    </row>
-    <row r="69" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="1"/>
-    </row>
-    <row r="70" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="1"/>
-    </row>
-    <row r="71" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="1"/>
-    </row>
-    <row r="72" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="1"/>
-    </row>
-    <row r="73" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="1"/>
-    </row>
-    <row r="74" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="1"/>
-    </row>
-    <row r="75" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="7">
+        <v>62</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="7">
+        <v>63</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="7">
+        <v>64</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="7">
+        <v>65</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="7">
+        <v>66</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="8">
+        <v>67</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="8">
+        <v>68</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="7">
+        <v>69</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="7">
+        <v>70</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="7"/>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="7">
+        <v>71</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="7">
+        <v>72</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="7"/>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="1"/>
     </row>
-    <row r="77" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="1"/>
     </row>
-    <row r="79" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="1"/>
     </row>
     <row r="81" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">

--- a/KOP brexit.xlsx
+++ b/KOP brexit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roy\Documents\A IDC Roy BDA\Third Year - BDA\Semester 2\סטאז'\code new\brexit-package-new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B845E4B-0E32-4128-91A7-1180201BD6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BF550D-7591-4EBE-8990-434E94E4BDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KOP brexit" sheetId="1" r:id="rId1"/>
@@ -910,7 +910,31 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -962,9 +986,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="KOP brexit-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="firstRowStripe" dxfId="4"/>
-      <tableStyleElement type="secondRowStripe" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="secondRowStripe" dxfId="6"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1194,7 +1218,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
+      <selection pane="bottomLeft" activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2619,7 +2643,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="7">
         <v>63</v>
       </c>
@@ -2634,7 +2658,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="7">
         <v>64</v>
       </c>
@@ -2649,7 +2673,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="7">
         <v>65</v>
       </c>
@@ -2664,7 +2688,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="7">
         <v>66</v>
       </c>
@@ -2679,7 +2703,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="8">
         <v>67</v>
       </c>
@@ -2694,7 +2718,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="8">
         <v>68</v>
       </c>
@@ -2709,7 +2733,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="7">
         <v>69</v>
       </c>
@@ -2724,7 +2748,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="7">
         <v>70</v>
       </c>
@@ -2737,7 +2761,7 @@
       </c>
       <c r="E72" s="7"/>
     </row>
-    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="7">
         <v>71</v>
       </c>
@@ -2752,7 +2776,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="7">
         <v>72</v>
       </c>
@@ -2765,22 +2789,30 @@
       </c>
       <c r="E74" s="7"/>
     </row>
-    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="1"/>
-    </row>
-    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="1"/>
     </row>
-    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="1"/>
     </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="1"/>
     </row>
     <row r="81" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5535,19 +5567,34 @@
       <c r="B997" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B997">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="1">
+  <conditionalFormatting sqref="B1:B74 B76:B997">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH(("1"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B997">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="2">
+  <conditionalFormatting sqref="B1:B74 B76:B997">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH(("2"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B997">
+  <conditionalFormatting sqref="B1:B74 B76:B997">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH(("3"),(B1))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH(("1"),(B75))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH(("2"),(B75))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75">
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="3">
-      <formula>NOT(ISERROR(SEARCH(("3"),(B1))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("3"),(B75))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
